--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60796.75029263235</v>
+        <v>60796.75029263232</v>
       </c>
     </row>
     <row r="7">
@@ -24242,13 +24242,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>133.1811664518765</v>
@@ -24391,10 +24391,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
         <v>37.63776203285606</v>
@@ -25190,13 +25190,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P35" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R35" t="n">
         <v>133.1811664518765</v>
@@ -25339,10 +25339,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N37" t="n">
         <v>37.63776203285606</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61968.76988284416</v>
+        <v>61968.76988284417</v>
       </c>
       <c r="C2" t="n">
         <v>61968.76988284416</v>
@@ -26326,34 +26326,34 @@
         <v>62951.03685317955</v>
       </c>
       <c r="G2" t="n">
+        <v>62951.03685317954</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62951.03685317954</v>
+      </c>
+      <c r="I2" t="n">
+        <v>62951.03685317954</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62951.03685317954</v>
+      </c>
+      <c r="K2" t="n">
         <v>62951.03685317955</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>62951.03685317955</v>
-      </c>
-      <c r="I2" t="n">
-        <v>62951.03685317955</v>
-      </c>
-      <c r="J2" t="n">
-        <v>62951.03685317955</v>
-      </c>
-      <c r="K2" t="n">
-        <v>62951.03685317954</v>
-      </c>
-      <c r="L2" t="n">
-        <v>62951.03685317954</v>
       </c>
       <c r="M2" t="n">
         <v>62951.03685317955</v>
       </c>
       <c r="N2" t="n">
-        <v>62951.03685317955</v>
+        <v>62951.03685317953</v>
       </c>
       <c r="O2" t="n">
-        <v>62951.03685317955</v>
+        <v>62951.03685317954</v>
       </c>
       <c r="P2" t="n">
-        <v>62951.03685317955</v>
+        <v>62951.03685317954</v>
       </c>
     </row>
     <row r="3">
@@ -26528,7 +26528,7 @@
         <v>16745.78189038904</v>
       </c>
       <c r="E6" t="n">
-        <v>55727.3973308028</v>
+        <v>55727.39733080281</v>
       </c>
       <c r="F6" t="n">
         <v>55837.29948737576</v>
@@ -26540,7 +26540,7 @@
         <v>55837.29948737576</v>
       </c>
       <c r="I6" t="n">
-        <v>55837.29948737577</v>
+        <v>55837.29948737576</v>
       </c>
       <c r="J6" t="n">
         <v>55837.29948737576</v>
@@ -26552,10 +26552,10 @@
         <v>55837.29948737576</v>
       </c>
       <c r="M6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737577</v>
       </c>
       <c r="N6" t="n">
-        <v>55837.29948737576</v>
+        <v>55837.29948737575</v>
       </c>
       <c r="O6" t="n">
         <v>55837.29948737576</v>
@@ -32704,7 +32704,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
         <v>111.3401072796808</v>
@@ -32731,7 +32731,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
         <v>29.89337332963048</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
         <v>6.778799411242828</v>
@@ -32810,7 +32810,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
         <v>13.03733674233122</v>
@@ -32859,7 +32859,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
         <v>17.69607700863206</v>
@@ -32871,10 +32871,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
         <v>90.04778243237713</v>
@@ -33652,7 +33652,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J35" t="n">
         <v>111.3401072796808</v>
@@ -33679,7 +33679,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S35" t="n">
         <v>29.89337332963048</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H36" t="n">
         <v>6.778799411242828</v>
@@ -33758,7 +33758,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S36" t="n">
         <v>13.03733674233122</v>
@@ -33807,7 +33807,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I37" t="n">
         <v>17.69607700863206</v>
@@ -33819,10 +33819,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M37" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N37" t="n">
         <v>90.04778243237713</v>
